--- a/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct.xlsx
+++ b/01_Dataset_Cleaned/MultiTaskModel_NiCrCoVFe_KW99_wt_pct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/InSync/2021_MPIE/2021-12_H Diffusion/ANN model/FORGE_ANN_MultiOutput/20230220_RealData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ywu/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF861130-E482-1A4D-9108-45C3B9E731A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AE529B-0DE5-1F4B-81D8-73BADAE4B061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30900" yWindow="7820" windowWidth="32100" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13800" yWindow="22100" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="8">
   <si>
     <t>Fe</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Index</t>
+  </si>
+  <si>
+    <t>microstructure</t>
+  </si>
+  <si>
+    <t>FCC</t>
   </si>
 </sst>
 </file>
@@ -115,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -125,12 +131,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -146,64 +146,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -399,78 +347,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -777,1491 +725,1631 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="6"/>
-    <col min="2" max="2" width="8.83203125" style="15"/>
-    <col min="3" max="5" width="8.83203125" style="16"/>
-    <col min="6" max="6" width="8.83203125" style="17"/>
-    <col min="7" max="7" width="115" style="5" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="8.83203125" style="10"/>
+    <col min="3" max="5" width="8.83203125" style="11"/>
+    <col min="6" max="6" width="8.83203125" style="12"/>
+    <col min="7" max="7" width="14.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
     <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="19.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" s="22" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="18">
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
         <v>0</v>
       </c>
-      <c r="B2" s="19">
+      <c r="B2" s="14">
         <v>51.985556121713991</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="15">
         <v>31.290494086317327</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="15">
         <v>4.8514462549704973</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="15">
         <v>1.6010177480480152</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="16">
         <v>10.271485788950168</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="23">
+      <c r="G2" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="18">
         <v>1</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="7">
         <v>47.589717947911439</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="8">
         <v>32.945772340771889</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="8">
         <v>6.6349072424164355</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="8">
         <v>2.3341961848493611</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="9">
         <v>10.495406284050869</v>
       </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="23">
+      <c r="G3" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="18">
         <v>2</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="7">
         <v>43.562303431624755</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="8">
         <v>32.812147890082358</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="8">
         <v>9.234028458733178</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="8">
         <v>3.2785922197858262</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="9">
         <v>11.112927999773884</v>
       </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="23">
+      <c r="G4" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="18">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="7">
         <v>39.221252958176038</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="8">
         <v>32.223975663519262</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="8">
         <v>12.597801656506819</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="8">
         <v>4.6211744387679641</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="9">
         <v>11.335795283029915</v>
       </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="23">
+      <c r="G5" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="18">
         <v>4</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="7">
         <v>34.885744156255512</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="8">
         <v>30.531578106145592</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="8">
         <v>16.720388575112171</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>6.3300705867289437</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="9">
         <v>11.532218575757774</v>
       </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="23">
+      <c r="G6" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="18">
         <v>5</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="7">
         <v>61.374401604980186</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="8">
         <v>22.868959922766212</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="8">
         <v>2.758549106266543</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="8">
         <v>1.2597259056615164</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="9">
         <v>11.73836346032553</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="23">
+      <c r="G7" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="18">
         <v>6</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="7">
         <v>56.715566328610478</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="8">
         <v>24.983688928302868</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="8">
         <v>4.1900521164142726</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="8">
         <v>1.6348081961025482</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="9">
         <v>12.475884430569824</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="23">
-        <v>7</v>
-      </c>
-      <c r="B9" s="12">
+      <c r="G8" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="18">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7">
         <v>52.002597105947977</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="8">
         <v>26.549667704892464</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="8">
         <v>5.7142794415998583</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="8">
         <v>2.4198553875915132</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="9">
         <v>13.313600359968195</v>
       </c>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="23">
+      <c r="G9" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="18">
         <v>8</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="7">
         <v>46.904261024172257</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="8">
         <v>26.990366089924294</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="8">
         <v>8.452002448961867</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="8">
         <v>3.607507573809785</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="9">
         <v>14.04586286313179</v>
       </c>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="23">
+      <c r="G10" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="18">
         <v>9</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="7">
         <v>42.000364481792616</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="8">
         <v>27.068709988041061</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="8">
         <v>10.859243562332601</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="8">
         <v>5.2857123160549495</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="9">
         <v>14.785969651778775</v>
       </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="23">
+      <c r="G11" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="18">
         <v>10</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="7">
         <v>37.750479076450354</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="8">
         <v>25.990445535654636</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="8">
         <v>14.359397194545034</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="8">
         <v>7.2921779632671937</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="9">
         <v>14.607500230082771</v>
       </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="23">
+      <c r="G12" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="18">
         <v>11</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="7">
         <v>32.877053022169903</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="8">
         <v>24.364656760025934</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="8">
         <v>18.304323075710137</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>10.517646963015226</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="9">
         <v>13.936320179078795</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="23">
+      <c r="G13" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="18">
         <v>12</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="7">
         <v>69.295492401424923</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="8">
         <v>15.028323496456538</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="8">
         <v>1.6723585102903824</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="8">
         <v>0.79774679512023805</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="9">
         <v>13.206078796707899</v>
       </c>
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="23">
+      <c r="G14" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="18">
         <v>13</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="7">
         <v>64.410491028233935</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="8">
         <v>17.465735934688716</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="8">
         <v>2.4770752649936805</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="8">
         <v>1.20945092086888</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="9">
         <v>14.43724685121477</v>
       </c>
-      <c r="G15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="23">
+      <c r="G15" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="18">
         <v>14</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="7">
         <v>59.479722921441969</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="8">
         <v>19.461414719461384</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="8">
         <v>3.5479762560452923</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="8">
         <v>1.7357885293934081</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="9">
         <v>15.775097573657954</v>
       </c>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="23">
+      <c r="G16" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="18">
         <v>15</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="7">
         <v>53.965035046755894</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="8">
         <v>21.278381333811886</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>4.9695989207288696</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="8">
         <v>2.7705496781216969</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="9">
         <v>17.016435020581643</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="23">
+      <c r="G17" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="18">
         <v>16</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="7">
         <v>50.295690683261697</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="8">
         <v>21.908547546250102</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="8">
         <v>6.5274126123755538</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="8">
         <v>3.6951014114888396</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="9">
         <v>17.573247746623807</v>
       </c>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="23">
+      <c r="G18" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="18">
         <v>17</v>
       </c>
-      <c r="B19" s="12">
+      <c r="B19" s="7">
         <v>44.49254902780563</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="8">
         <v>22.258254383993236</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="8">
         <v>9.124043858346317</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="8">
         <v>5.8969237904439185</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="9">
         <v>18.228228939410904</v>
       </c>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="23">
+      <c r="G19" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="18">
         <v>18</v>
       </c>
-      <c r="B20" s="12">
+      <c r="B20" s="7">
         <v>40.146062943016794</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="8">
         <v>21.543371683327845</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="8">
         <v>11.998261413799156</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <v>8.2606171846713998</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="9">
         <v>18.051686775184805</v>
       </c>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="23">
+      <c r="G20" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="18">
         <v>19</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="7">
         <v>35.00489144090659</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="8">
         <v>20.30123682150807</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="8">
         <v>15.62123977056628</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <v>11.769463669992971</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="9">
         <v>17.303168297026076</v>
       </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="23">
+      <c r="G21" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="18">
         <v>20</v>
       </c>
-      <c r="B22" s="12">
+      <c r="B22" s="7">
         <v>30.194646763240151</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="8">
         <v>18.705762589836127</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="8">
         <v>18.551167652352021</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="8">
         <v>16.676993861517008</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="9">
         <v>15.871429133054688</v>
       </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="23">
+      <c r="G22" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="18">
         <v>21</v>
       </c>
-      <c r="B23" s="12">
+      <c r="B23" s="7">
         <v>69.689007375649737</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="8">
         <v>11.621089282206166</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="8">
         <v>1.5846938342928516</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="8">
         <v>0.82099313887086223</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="9">
         <v>16.284216368980399</v>
       </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="23">
+      <c r="G23" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="18">
         <v>22</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="7">
         <v>65.180103320954615</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="8">
         <v>13.661505079693539</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="8">
         <v>1.9819664416039309</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="8">
         <v>1.1778288250371536</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="9">
         <v>17.998596332710768</v>
       </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="23">
+      <c r="G24" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="12">
+      <c r="B25" s="7">
         <v>60.567576891204688</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="8">
         <v>15.082298939642239</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="8">
         <v>3.0044804151556295</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="8">
         <v>1.8089890092529033</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="9">
         <v>19.536654744744531</v>
       </c>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="23">
+      <c r="G25" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="18">
         <v>24</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="7">
         <v>55.497556047338094</v>
       </c>
-      <c r="C26" s="13">
+      <c r="C26" s="8">
         <v>16.418882767309871</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="8">
         <v>4.116930505690866</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="8">
         <v>2.7858210993691297</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="9">
         <v>21.180809580292038</v>
       </c>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="23">
+      <c r="G26" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="18">
         <v>25</v>
       </c>
-      <c r="B27" s="12">
+      <c r="B27" s="7">
         <v>50.019493215827858</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="8">
         <v>17.687927187607979</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="8">
         <v>5.6801838407445047</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="8">
         <v>4.251063367731021</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="9">
         <v>22.361332388088631</v>
       </c>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="23">
+      <c r="G27" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="18">
         <v>26</v>
       </c>
-      <c r="B28" s="12">
+      <c r="B28" s="7">
         <v>45.945475012888707</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="8">
         <v>18.131245692572133</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="8">
         <v>7.5595268784744301</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="8">
         <v>6.1084697379585853</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="9">
         <v>22.255282678106148</v>
       </c>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="23">
+      <c r="G28" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="18">
         <v>27</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="7">
         <v>41.152947474678463</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="8">
         <v>17.718349538688813</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="8">
         <v>9.8308096656878465</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="8">
         <v>9.1793563540157894</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="9">
         <v>22.118536966929085</v>
       </c>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="23">
+      <c r="G29" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="18">
         <v>28</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="7">
         <v>36.110775551886945</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="8">
         <v>17.347509830288864</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="8">
         <v>12.156535358355718</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="8">
         <v>13.249306864149085</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="9">
         <v>21.135872395319392</v>
       </c>
-      <c r="G30" s="3"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="23">
+      <c r="G30" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="18">
         <v>29</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="7">
         <v>31.057380669466944</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="8">
         <v>15.347683870152599</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="8">
         <v>15.273876275574946</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="8">
         <v>18.520441055829949</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="9">
         <v>19.800618128975568</v>
       </c>
-      <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="23">
+      <c r="G31" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="18">
         <v>30</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="7">
         <v>68.382720109819132</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="8">
         <v>8.9055941542334391</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="8">
         <v>1.2848404593925526</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="8">
         <v>0.87516229967201431</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="9">
         <v>20.551682976882859</v>
       </c>
-      <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="23">
+      <c r="G32" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="18">
         <v>31</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="7">
         <v>63.382715948063549</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="8">
         <v>10.465621483441122</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="8">
         <v>1.8360096709140665</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="8">
         <v>1.3463100531303407</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="9">
         <v>22.969342844450928</v>
       </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="23">
+      <c r="G33" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="18">
         <v>32</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="7">
         <v>59.447574493313013</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="8">
         <v>11.68287684138104</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="8">
         <v>2.4931284268681817</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="8">
         <v>1.9672677304065036</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="9">
         <v>24.409152508031269</v>
       </c>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="23">
+      <c r="G34" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="18">
         <v>33</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>54.719502758315954</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="8">
         <v>12.829094615631536</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="8">
         <v>3.4793695522948482</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="8">
         <v>2.8908449743981675</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="9">
         <v>26.081188099359498</v>
       </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="23">
+      <c r="G35" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="18">
         <v>34</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="7">
         <v>50.263005206558276</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="8">
         <v>13.983895821306044</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="8">
         <v>4.5775899961203539</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="8">
         <v>4.2993611669656406</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="9">
         <v>26.876147809049677</v>
       </c>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="23">
+      <c r="G36" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="18">
         <v>35</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="7">
         <v>45.954016051456158</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="8">
         <v>14.124003456155737</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="8">
         <v>6.3614737995046546</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="8">
         <v>6.3942079579757145</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="9">
         <v>27.166298734907716</v>
       </c>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="23">
+      <c r="G37" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="18">
         <v>36</v>
       </c>
-      <c r="B38" s="12">
+      <c r="B38" s="7">
         <v>40.355579866175454</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="8">
         <v>14.633724565450343</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D38" s="8">
         <v>8.4084914102535748</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E38" s="8">
         <v>9.3462194225109148</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="9">
         <v>27.255984735609719</v>
       </c>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="23">
+      <c r="G38" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="18">
         <v>37</v>
       </c>
-      <c r="B39" s="12">
+      <c r="B39" s="7">
         <v>36.008372395582896</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="8">
         <v>13.617950252415048</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D39" s="8">
         <v>10.25459236048089</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E39" s="8">
         <v>14.072801662527715</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="9">
         <v>26.046283328993454</v>
       </c>
-      <c r="G39" s="3"/>
-    </row>
-    <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="23">
+      <c r="G39" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="18">
         <v>38</v>
       </c>
-      <c r="B40" s="12">
+      <c r="B40" s="7">
         <v>31.119994336316935</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="8">
         <v>13.409411505875452</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="8">
         <v>12.116196598477593</v>
       </c>
-      <c r="E40" s="13">
+      <c r="E40" s="8">
         <v>19.384611207836684</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="9">
         <v>23.969786351493347</v>
       </c>
-      <c r="G40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="23">
+      <c r="G40" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="18">
         <v>39</v>
       </c>
-      <c r="B41" s="12">
+      <c r="B41" s="7">
         <v>65.503925820172199</v>
       </c>
-      <c r="C41" s="13">
+      <c r="C41" s="8">
         <v>6.8910031695883669</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="8">
         <v>1.1201679292818238</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E41" s="8">
         <v>0.87321931563441368</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="9">
         <v>25.611683765323196</v>
       </c>
-      <c r="G41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="23">
+      <c r="G41" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="18">
         <v>40</v>
       </c>
-      <c r="B42" s="12">
+      <c r="B42" s="7">
         <v>60.643054606926682</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="8">
         <v>8.0448575919399214</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="8">
         <v>1.6278708867005893</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E42" s="8">
         <v>1.2735385219478699</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="9">
         <v>28.41067839248494</v>
       </c>
-      <c r="G42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="23">
+      <c r="G42" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="18">
         <v>41</v>
       </c>
-      <c r="B43" s="12">
+      <c r="B43" s="7">
         <v>56.454974528229371</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="8">
         <v>8.8983149902297729</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="8">
         <v>2.017091271534639</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="8">
         <v>1.9492188906338432</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="9">
         <v>30.680400319372371</v>
       </c>
-      <c r="G43" s="3"/>
-    </row>
-    <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="23">
+      <c r="G43" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="18">
         <v>42</v>
       </c>
-      <c r="B44" s="12">
+      <c r="B44" s="7">
         <v>52.081321255891602</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="8">
         <v>9.9783666324428033</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D44" s="8">
         <v>2.7495815961547194</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E44" s="8">
         <v>2.8431068379297022</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="9">
         <v>32.347623677581183</v>
       </c>
-      <c r="G44" s="3"/>
-    </row>
-    <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="23">
+      <c r="G44" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="18">
         <v>43</v>
       </c>
-      <c r="B45" s="12">
+      <c r="B45" s="7">
         <v>48.036496251556102</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="8">
         <v>10.661782610034622</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D45" s="8">
         <v>3.8023533895905453</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E45" s="8">
         <v>4.2322435364626321</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="9">
         <v>33.267124212356094</v>
       </c>
-      <c r="G45" s="3"/>
-    </row>
-    <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="23">
+      <c r="G45" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="18">
         <v>44</v>
       </c>
-      <c r="B46" s="12">
+      <c r="B46" s="7">
         <v>43.852455627753393</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="8">
         <v>11.350067271850817</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D46" s="8">
         <v>4.8528747652140298</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="8">
         <v>6.5453496128624211</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="9">
         <v>33.399252722319325</v>
       </c>
-      <c r="G46" s="3"/>
-    </row>
-    <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="23">
+      <c r="G46" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="18">
         <v>45</v>
       </c>
-      <c r="B47" s="12">
+      <c r="B47" s="7">
         <v>39.841701938731347</v>
       </c>
-      <c r="C47" s="13">
+      <c r="C47" s="8">
         <v>11.487250555300474</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D47" s="8">
         <v>6.4888937490856655</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E47" s="8">
         <v>9.3482989417091567</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="9">
         <v>32.833854815173353</v>
       </c>
-      <c r="G47" s="3"/>
-    </row>
-    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="23">
+      <c r="G47" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="18">
         <v>46</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B48" s="7">
         <v>34.922323546792462</v>
       </c>
-      <c r="C48" s="13">
+      <c r="C48" s="8">
         <v>11.3685841516441</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D48" s="8">
         <v>8.0585864142229688</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E48" s="8">
         <v>14.424627129291084</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="9">
         <v>31.225878758049387</v>
       </c>
-      <c r="G48" s="3"/>
-    </row>
-    <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="23">
+      <c r="G48" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="18">
         <v>47</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B49" s="7">
         <v>31.122424716760772</v>
       </c>
-      <c r="C49" s="13">
+      <c r="C49" s="8">
         <v>11.253531811177913</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D49" s="8">
         <v>9.502390962398529</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E49" s="8">
         <v>20.121144049945926</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="9">
         <v>28.000508459716873</v>
       </c>
-      <c r="G49" s="3"/>
-    </row>
-    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="23">
+      <c r="G49" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="18">
         <v>48</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="7">
         <v>59.73922474830303</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="8">
         <v>5.5736654960309071</v>
       </c>
-      <c r="D50" s="13">
+      <c r="D50" s="8">
         <v>1.0391582330475257</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E50" s="8">
         <v>0.88935159508692818</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="9">
         <v>32.758599927531613</v>
       </c>
-      <c r="G50" s="3"/>
-    </row>
-    <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="23">
+      <c r="G50" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="18">
         <v>49</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="7">
         <v>55.411231985522846</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="8">
         <v>6.3842305366625194</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D51" s="8">
         <v>1.3419047021148991</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E51" s="8">
         <v>1.2580868250611639</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="9">
         <v>35.604545950638574</v>
       </c>
-      <c r="G51" s="3"/>
-    </row>
-    <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="23">
+      <c r="G51" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="18">
         <v>50</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="7">
         <v>51.417999306835384</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="8">
         <v>6.9010937327539263</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D52" s="8">
         <v>1.7899051309791196</v>
       </c>
-      <c r="E52" s="13">
+      <c r="E52" s="8">
         <v>1.7528839340369251</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="9">
         <v>38.138117895394643</v>
       </c>
-      <c r="G52" s="3"/>
-    </row>
-    <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="23">
+      <c r="G52" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="18">
         <v>51</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="7">
         <v>48.265573546513409</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="8">
         <v>7.6360391018749345</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D53" s="8">
         <v>2.3141672076970843</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="8">
         <v>2.646214637996664</v>
       </c>
-      <c r="F53" s="14">
+      <c r="F53" s="9">
         <v>39.138005505917896</v>
       </c>
-      <c r="G53" s="3"/>
-    </row>
-    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A54" s="23">
+      <c r="G53" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="18">
         <v>52</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="7">
         <v>44.39734559290023</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="8">
         <v>8.2706044002364205</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D54" s="8">
         <v>3.0205116547106114</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E54" s="8">
         <v>4.1414605511040694</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="9">
         <v>40.170077801048677</v>
       </c>
-      <c r="G54" s="3"/>
-    </row>
-    <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="23">
+      <c r="G54" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="18">
         <v>53</v>
       </c>
-      <c r="B55" s="12">
+      <c r="B55" s="7">
         <v>40.916612680279655</v>
       </c>
-      <c r="C55" s="13">
+      <c r="C55" s="8">
         <v>8.6422776703661697</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D55" s="8">
         <v>3.9515565728062287</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E55" s="8">
         <v>6.1717778732100932</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="9">
         <v>40.317775203337838</v>
       </c>
-      <c r="G55" s="3"/>
-    </row>
-    <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="23">
+      <c r="G55" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="18">
         <v>54</v>
       </c>
-      <c r="B56" s="12">
+      <c r="B56" s="7">
         <v>37.845254770146404</v>
       </c>
-      <c r="C56" s="13">
+      <c r="C56" s="8">
         <v>9.0763334036754433</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D56" s="8">
         <v>4.8391944061567775</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="8">
         <v>9.3459305214341732</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="9">
         <v>38.893286898587206</v>
       </c>
-      <c r="G56" s="3"/>
-    </row>
-    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="23">
+      <c r="G56" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="18">
         <v>55</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="7">
         <v>34.085592767654497</v>
       </c>
-      <c r="C57" s="13">
+      <c r="C57" s="8">
         <v>9.5994105863956047</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D57" s="8">
         <v>6.401293592862622</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E57" s="8">
         <v>13.87879910761875</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="9">
         <v>36.034903945468521</v>
       </c>
-      <c r="G57" s="3"/>
-    </row>
-    <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="23">
+      <c r="G57" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="18">
         <v>56</v>
       </c>
-      <c r="B58" s="12">
+      <c r="B58" s="7">
         <v>30.174382834114638</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C58" s="8">
         <v>9.2105703937293875</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D58" s="8">
         <v>7.6328593851769737</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="8">
         <v>19.940485619756103</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="9">
         <v>33.041701767222897</v>
       </c>
-      <c r="G58" s="3"/>
-    </row>
-    <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="23">
+      <c r="G58" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="18">
         <v>57</v>
       </c>
-      <c r="B59" s="12">
+      <c r="B59" s="7">
         <v>48.805420619071391</v>
       </c>
-      <c r="C59" s="13">
+      <c r="C59" s="8">
         <v>4.8618150039567762</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="8">
         <v>1.1475773781146053</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E59" s="8">
         <v>1.1975040128740135</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="9">
         <v>43.987682985983227</v>
       </c>
-      <c r="G59" s="3"/>
-    </row>
-    <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="23">
+      <c r="G59" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="18">
         <v>58</v>
       </c>
-      <c r="B60" s="12">
+      <c r="B60" s="7">
         <v>45.862443881372087</v>
       </c>
-      <c r="C60" s="13">
+      <c r="C60" s="8">
         <v>5.2616695577119152</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D60" s="8">
         <v>1.4001587318388644</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E60" s="8">
         <v>1.7750961180044333</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="9">
         <v>45.700631711072703</v>
       </c>
-      <c r="G60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="23">
+      <c r="G60" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="18">
         <v>59</v>
       </c>
-      <c r="B61" s="12">
+      <c r="B61" s="7">
         <v>42.953878242154339</v>
       </c>
-      <c r="C61" s="13">
+      <c r="C61" s="8">
         <v>5.9600395804173996</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D61" s="8">
         <v>1.7563467889728659</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E61" s="8">
         <v>2.6500786406412646</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="9">
         <v>46.679656747814121</v>
       </c>
-      <c r="G61" s="3"/>
-    </row>
-    <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="23">
+      <c r="G61" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="18">
         <v>60</v>
       </c>
-      <c r="B62" s="12">
+      <c r="B62" s="7">
         <v>39.991895404786462</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="8">
         <v>6.4599606524271058</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="8">
         <v>2.2945800884794356</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E62" s="8">
         <v>3.7144193675898025</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="9">
         <v>47.539144486717191</v>
       </c>
-      <c r="G62" s="3"/>
-    </row>
-    <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="23">
+      <c r="G62" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="18">
         <v>61</v>
       </c>
-      <c r="B63" s="12">
+      <c r="B63" s="7">
         <v>37.182193082336887</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="8">
         <v>6.7078400581223745</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="8">
         <v>3.1268514936909457</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="8">
         <v>5.9118988480751744</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="9">
         <v>47.071216517774623</v>
       </c>
-      <c r="G63" s="3"/>
-    </row>
-    <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="23">
+      <c r="G63" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="18">
         <v>62</v>
       </c>
-      <c r="B64" s="12">
+      <c r="B64" s="7">
         <v>34.196837358959201</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="8">
         <v>7.4208253151988037</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="8">
         <v>4.0426691573013489</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="8">
         <v>8.668102187239116</v>
       </c>
-      <c r="F64" s="14">
+      <c r="F64" s="9">
         <v>45.671565981301534</v>
       </c>
-      <c r="G64" s="3"/>
-    </row>
-    <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="23">
+      <c r="G64" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="18">
         <v>63</v>
       </c>
-      <c r="B65" s="12">
+      <c r="B65" s="7">
         <v>31.853740367302681</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="8">
         <v>7.2922419826904488</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="8">
         <v>5.2039606994885279</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="8">
         <v>13.139013541355146</v>
       </c>
-      <c r="F65" s="14">
+      <c r="F65" s="9">
         <v>42.511043409163186</v>
       </c>
-      <c r="G65" s="3"/>
-    </row>
-    <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="23">
+      <c r="G65" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="18">
         <v>64</v>
       </c>
-      <c r="B66" s="12">
+      <c r="B66" s="7">
         <v>38.513614164599005</v>
       </c>
-      <c r="C66" s="13">
+      <c r="C66" s="8">
         <v>4.1639805327006858</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D66" s="8">
         <v>1.3202140118647445</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="8">
         <v>1.6264187447695275</v>
       </c>
-      <c r="F66" s="14">
+      <c r="F66" s="9">
         <v>54.375772546066045</v>
       </c>
-      <c r="G66" s="3"/>
-    </row>
-    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="23">
+      <c r="G66" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="18">
         <v>65</v>
       </c>
-      <c r="B67" s="12">
+      <c r="B67" s="7">
         <v>36.408091642768319</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="8">
         <v>4.5485974163460314</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="8">
         <v>1.4789327458428043</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="8">
         <v>2.4937506658720929</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="9">
         <v>55.070627529170757</v>
       </c>
-      <c r="G67" s="3"/>
-    </row>
-    <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="23">
+      <c r="G67" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="18">
         <v>66</v>
       </c>
-      <c r="B68" s="12">
+      <c r="B68" s="7">
         <v>34.634806306462828</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="8">
         <v>4.9110826260264151</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="8">
         <v>1.9737839597432643</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E68" s="8">
         <v>3.6559985401798216</v>
       </c>
-      <c r="F68" s="14">
+      <c r="F68" s="9">
         <v>54.824328567587663</v>
       </c>
-      <c r="G68" s="3"/>
-    </row>
-    <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="23">
+      <c r="G68" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="18">
         <v>67</v>
       </c>
-      <c r="B69" s="12">
+      <c r="B69" s="7">
         <v>32.543752368985842</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="8">
         <v>5.3964403627250457</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="8">
         <v>2.4402719902319436</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E69" s="8">
         <v>5.4318371837139212</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="9">
         <v>54.18769809434324</v>
       </c>
-      <c r="G69" s="3"/>
-    </row>
-    <row r="70" spans="1:7" s="28" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="24">
+      <c r="G69" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="23" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="19">
         <v>68</v>
       </c>
-      <c r="B70" s="25">
+      <c r="B70" s="20">
         <v>31.584854260386884</v>
       </c>
-      <c r="C70" s="26">
+      <c r="C70" s="21">
         <v>5.8277925240212154</v>
       </c>
-      <c r="D70" s="26">
+      <c r="D70" s="21">
         <v>3.0978703053380823</v>
       </c>
-      <c r="E70" s="26">
+      <c r="E70" s="21">
         <v>8.1422950948298247</v>
       </c>
-      <c r="F70" s="27">
+      <c r="F70" s="22">
         <v>51.347187815424</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="25" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
